--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -444,10 +444,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1.303974143155543E-06</v>
+        <v>0.2895481763322857</v>
       </c>
       <c r="E2">
-        <v>1.303974143155543E-06</v>
+        <v>0.2895481763322857</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,10 +458,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7.354384463391061E-05</v>
+        <v>0.0001042542288175873</v>
       </c>
       <c r="E3">
-        <v>7.354384463391061E-05</v>
+        <v>0.0001042542288175873</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -469,13 +469,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>7.365974328949721E-05</v>
+        <v>0.9998974032622709</v>
       </c>
       <c r="E4">
-        <v>7.365974328949721E-05</v>
+        <v>0.9998974032622709</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -486,10 +486,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9999987481284447</v>
+        <v>0.9997289538032235</v>
       </c>
       <c r="E5">
-        <v>0.9999987481284447</v>
+        <v>0.9997289538032235</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.9999999999999984</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.9999999999999984</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -520,10 +520,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>9.056160926818848</v>
+        <v>8.643099784851074</v>
       </c>
       <c r="G7">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
